--- a/biology/Histoire de la zoologie et de la botanique/Victor_Antoine_Signoret/Victor_Antoine_Signoret.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Antoine_Signoret/Victor_Antoine_Signoret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Antoine Signoret est un médecin et un entomologiste français, né le 6 avril 1816 à Paris, où il est mort le 3 avril 1889.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, médecin, dirige une entreprise de produits pharmaceutiques. Il fait des études de pharmacie puis de médecine et obtient son titre de docteur en 1845 avec une thèse intitulée De l'Arsenic considéré sous ses divers points de vue. Il commence à s’intéresser aux coléoptères puis aux hémiptères. Il fait plusieurs voyages en Europe et en Asie Mineure qui lui permettent de rassembler une très importante collection qui est acquise par le Musée d'histoire naturelle de Vienne.
 Il fut élu, à deux reprises, président de la Société entomologique de France en 1861 puis en 1883.
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.
 Jean Lhoste (1987). Les Entomologistes français. 1750-1950. INRA Éditions : 351 p.
